--- a/public/excel/template/Template Upload Player.xlsx
+++ b/public/excel/template/Template Upload Player.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>ID Player</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>player3</t>
+  </si>
+  <si>
+    <t>Kode Bank</t>
+  </si>
+  <si>
+    <t>BCA</t>
   </si>
 </sst>
 </file>
@@ -408,22 +414,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5">
+    <row r="1" spans="1:6" ht="15.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,16 +438,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -448,16 +458,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>102012012</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -465,16 +478,19 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>102012013</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -482,16 +498,19 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>102012014</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -499,16 +518,19 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>102012015</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -516,12 +538,15 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>102012016</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>8</v>
       </c>
     </row>
